--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_6_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_6_genetic_schedule.xlsx
@@ -541,6 +541,13 @@
         </is>
       </c>
       <c r="B4" s="2" t="n"/>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>CN 321 - Networking
+2A
+Room 137</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -548,6 +555,14 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>DMK 421 - Digital Marketing
+3C
+Room 30</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -555,7 +570,16 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>LI 207 - Literature
 2E
@@ -563,14 +587,6 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-    </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
@@ -585,6 +601,7 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
+      <c r="B9" s="2" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -606,29 +623,35 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>ST 407 - Software Testing
+3A
+Room 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>WH 435 - World History
 3E
 Room 234</t>
         </is>
       </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -644,6 +667,7 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
+      <c r="B16" s="2" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -651,52 +675,43 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="2" t="n"/>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>AC 307 - Accounting
 2C
 Room 151</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>ST 407 - Software Testing
-3A
-Room 78</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>ST 407 - Software Testing
 3A
@@ -711,6 +726,7 @@
         </is>
       </c>
       <c r="B22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -718,21 +734,21 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="2" t="n"/>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>CN 321 - Networking
 2A
-Room 16, 17</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n"/>
+Room 17</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -747,6 +763,7 @@
 Room 216</t>
         </is>
       </c>
+      <c r="F25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -764,16 +781,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="10">
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_6_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_6_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +97,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,11 +545,28 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>AC 307 - Accounting
-2C
-Room 34</t>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>A1 GE LITE - Living in the IT Era
+1A
+Room 304
+Emp: 6</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>A1 GE LITE - Living in the IT Era
+1A
+Room 305
+Emp: 6</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>A1 GE LITE - Living in the IT Era
+1B
+Room 305
+Emp: 6</t>
         </is>
       </c>
     </row>
@@ -532,7 +576,9 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -540,14 +586,9 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>CN 321 - Networking
-2A
-Room 137</t>
-        </is>
-      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -555,14 +596,14 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>DMK 421 - Digital Marketing
-3C
-Room 30</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>A1 GE LITE - Living in the IT Era
+1B
+Room 303
+Emp: 6</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -570,8 +611,15 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
+      <c r="B6" s="3" t="n"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>IS 312 - Business Process Management
+3A
+Room 304
+Emp: 6</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -579,13 +627,8 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>LI 207 - Literature
-2E
-Room 169</t>
-        </is>
-      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="4" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -593,7 +636,7 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="4" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -601,7 +644,6 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -623,6 +665,22 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>IS 413 - Business Intelligence
+4A
+Room 304
+Emp: 6</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>IS 413 - Business Intelligence
+4A
+Room 305
+Emp: 6</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -630,13 +688,8 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>ST 407 - Software Testing
-3A
-Room 78</t>
-        </is>
-      </c>
+      <c r="B13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -644,14 +697,8 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>WH 435 - World History
-3E
-Room 234</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -659,7 +706,6 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -667,7 +713,6 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -675,7 +720,6 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -704,20 +748,6 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>AC 307 - Accounting
-2C
-Room 151</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>ST 407 - Software Testing
-3A
-Room 202</t>
-        </is>
-      </c>
     </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -725,8 +755,6 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -734,7 +762,6 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -742,11 +769,12 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>CN 321 - Networking
-2A
-Room 17</t>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>IS 312 - Business Process Management
+3A
+Room 304
+Emp: 6</t>
         </is>
       </c>
     </row>
@@ -756,14 +784,7 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>DMK 421 - Digital Marketing
-3C
-Room 216</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n"/>
+      <c r="B25" s="4" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -771,7 +792,7 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
+      <c r="B26" s="4" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -781,17 +802,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B7:B9"/>
+  <mergeCells count="8">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
